--- a/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 5.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 5.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3473,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3777,12 +3777,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3853,12 +3853,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4773,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4887,12 +4887,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5343,12 +5343,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5381,12 +5381,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6179,12 +6179,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6445,12 +6445,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
